--- a/data/Speediance_library.xlsx
+++ b/data/Speediance_library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phl-mtl/Documents/Hevy/hevy_excel_importer_fixed/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1852B3-3550-5E4E-98D3-3EE23D2CF78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A04DB3-6EDC-BF4D-9839-28C68A7139DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45960" yWindow="500" windowWidth="24160" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42380" yWindow="720" windowWidth="24160" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4733" uniqueCount="1777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4733" uniqueCount="1778">
   <si>
     <t>Title</t>
   </si>
@@ -5368,6 +5368,9 @@
   </si>
   <si>
     <t>zz_Triceps Stretch (with Frame version)</t>
+  </si>
+  <si>
+    <t>forearms, shoulders, traps, abdominals, upper_back, lower_back</t>
   </si>
 </sst>
 </file>
@@ -5754,8 +5757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E814"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="B370" workbookViewId="0">
+      <selection activeCell="E393" sqref="E393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12266,7 +12269,7 @@
         <v>551</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>650</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">

--- a/data/Speediance_library.xlsx
+++ b/data/Speediance_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phl-mtl/Documents/Hevy/hevy_excel_importer_fixed/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A04DB3-6EDC-BF4D-9839-28C68A7139DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891AFA52-1784-2947-9612-5F7CFFC6D495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42380" yWindow="720" windowWidth="24160" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4733" uniqueCount="1778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4733" uniqueCount="1777">
   <si>
     <t>Title</t>
   </si>
@@ -1987,9 +1987,6 @@
   </si>
   <si>
     <t>shoulders, triceps, abdominals, traps, chest</t>
-  </si>
-  <si>
-    <t>forearms, shoulders, traps, abdominals, upper_ back, lower_back</t>
   </si>
   <si>
     <t>shoulders, triceps, abdominals, upper_back, lower_back</t>
@@ -5758,7 +5755,7 @@
   <dimension ref="A1:E814"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B370" workbookViewId="0">
-      <selection activeCell="E393" sqref="E393"/>
+      <selection activeCell="G386" sqref="G386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5790,7 +5787,7 @@
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>540</v>
@@ -5807,7 +5804,7 @@
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>540</v>
@@ -5821,7 +5818,7 @@
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>540</v>
@@ -5835,7 +5832,7 @@
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>540</v>
@@ -5849,7 +5846,7 @@
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>540</v>
@@ -5863,7 +5860,7 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>540</v>
@@ -5877,7 +5874,7 @@
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>540</v>
@@ -5891,7 +5888,7 @@
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>540</v>
@@ -5905,7 +5902,7 @@
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>540</v>
@@ -5922,7 +5919,7 @@
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>540</v>
@@ -5939,7 +5936,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>540</v>
@@ -5956,7 +5953,7 @@
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>540</v>
@@ -5970,7 +5967,7 @@
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>540</v>
@@ -5984,7 +5981,7 @@
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>540</v>
@@ -5998,7 +5995,7 @@
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>540</v>
@@ -6015,7 +6012,7 @@
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>540</v>
@@ -6032,7 +6029,7 @@
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>540</v>
@@ -6049,7 +6046,7 @@
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>540</v>
@@ -6066,7 +6063,7 @@
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>540</v>
@@ -6083,7 +6080,7 @@
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>540</v>
@@ -6100,7 +6097,7 @@
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>540</v>
@@ -6117,7 +6114,7 @@
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>540</v>
@@ -6134,7 +6131,7 @@
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>540</v>
@@ -6151,7 +6148,7 @@
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>540</v>
@@ -6165,7 +6162,7 @@
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>540</v>
@@ -6182,7 +6179,7 @@
     </row>
     <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>540</v>
@@ -6196,7 +6193,7 @@
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>540</v>
@@ -6210,7 +6207,7 @@
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>540</v>
@@ -6224,7 +6221,7 @@
     </row>
     <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>540</v>
@@ -6241,7 +6238,7 @@
     </row>
     <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>540</v>
@@ -6258,7 +6255,7 @@
     </row>
     <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>540</v>
@@ -6272,7 +6269,7 @@
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>540</v>
@@ -6289,7 +6286,7 @@
     </row>
     <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>540</v>
@@ -6306,7 +6303,7 @@
     </row>
     <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>540</v>
@@ -6323,7 +6320,7 @@
     </row>
     <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>540</v>
@@ -6340,7 +6337,7 @@
     </row>
     <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>540</v>
@@ -6357,7 +6354,7 @@
     </row>
     <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>540</v>
@@ -6374,7 +6371,7 @@
     </row>
     <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>540</v>
@@ -6391,7 +6388,7 @@
     </row>
     <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>540</v>
@@ -6408,7 +6405,7 @@
     </row>
     <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>540</v>
@@ -6425,7 +6422,7 @@
     </row>
     <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>540</v>
@@ -6442,7 +6439,7 @@
     </row>
     <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>540</v>
@@ -6459,7 +6456,7 @@
     </row>
     <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>540</v>
@@ -6476,7 +6473,7 @@
     </row>
     <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>540</v>
@@ -6493,7 +6490,7 @@
     </row>
     <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>540</v>
@@ -6510,7 +6507,7 @@
     </row>
     <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>540</v>
@@ -6527,7 +6524,7 @@
     </row>
     <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>540</v>
@@ -6544,7 +6541,7 @@
     </row>
     <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>540</v>
@@ -6561,7 +6558,7 @@
     </row>
     <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>540</v>
@@ -6578,7 +6575,7 @@
     </row>
     <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>540</v>
@@ -6595,7 +6592,7 @@
     </row>
     <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>540</v>
@@ -6612,7 +6609,7 @@
     </row>
     <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>540</v>
@@ -6629,7 +6626,7 @@
     </row>
     <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>540</v>
@@ -6643,7 +6640,7 @@
     </row>
     <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>540</v>
@@ -6657,7 +6654,7 @@
     </row>
     <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>540</v>
@@ -6671,7 +6668,7 @@
     </row>
     <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>540</v>
@@ -6685,7 +6682,7 @@
     </row>
     <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>540</v>
@@ -6702,7 +6699,7 @@
     </row>
     <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>540</v>
@@ -6719,7 +6716,7 @@
     </row>
     <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>540</v>
@@ -6736,7 +6733,7 @@
     </row>
     <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>540</v>
@@ -6750,7 +6747,7 @@
     </row>
     <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>540</v>
@@ -6764,7 +6761,7 @@
     </row>
     <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>540</v>
@@ -6778,7 +6775,7 @@
     </row>
     <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>540</v>
@@ -6795,7 +6792,7 @@
     </row>
     <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>540</v>
@@ -6812,7 +6809,7 @@
     </row>
     <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>540</v>
@@ -6829,7 +6826,7 @@
     </row>
     <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>541</v>
@@ -6846,7 +6843,7 @@
     </row>
     <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>541</v>
@@ -6863,7 +6860,7 @@
     </row>
     <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>540</v>
@@ -6877,7 +6874,7 @@
     </row>
     <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>540</v>
@@ -6891,7 +6888,7 @@
     </row>
     <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>540</v>
@@ -6905,7 +6902,7 @@
     </row>
     <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>540</v>
@@ -6922,7 +6919,7 @@
     </row>
     <row r="73" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>540</v>
@@ -6939,7 +6936,7 @@
     </row>
     <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>540</v>
@@ -6956,7 +6953,7 @@
     </row>
     <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>540</v>
@@ -6973,7 +6970,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>540</v>
@@ -6990,7 +6987,7 @@
     </row>
     <row r="77" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>540</v>
@@ -7007,7 +7004,7 @@
     </row>
     <row r="78" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>540</v>
@@ -7024,7 +7021,7 @@
     </row>
     <row r="79" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>540</v>
@@ -7041,7 +7038,7 @@
     </row>
     <row r="80" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>540</v>
@@ -7058,7 +7055,7 @@
     </row>
     <row r="81" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>540</v>
@@ -7075,7 +7072,7 @@
     </row>
     <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>540</v>
@@ -7092,7 +7089,7 @@
     </row>
     <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>540</v>
@@ -7109,7 +7106,7 @@
     </row>
     <row r="84" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>540</v>
@@ -7126,7 +7123,7 @@
     </row>
     <row r="85" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>540</v>
@@ -7143,7 +7140,7 @@
     </row>
     <row r="86" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>540</v>
@@ -7160,7 +7157,7 @@
     </row>
     <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>540</v>
@@ -7177,7 +7174,7 @@
     </row>
     <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>540</v>
@@ -7194,7 +7191,7 @@
     </row>
     <row r="89" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>540</v>
@@ -7208,7 +7205,7 @@
     </row>
     <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>540</v>
@@ -7225,7 +7222,7 @@
     </row>
     <row r="91" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>540</v>
@@ -7242,7 +7239,7 @@
     </row>
     <row r="92" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>540</v>
@@ -7259,7 +7256,7 @@
     </row>
     <row r="93" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>540</v>
@@ -7276,7 +7273,7 @@
     </row>
     <row r="94" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>540</v>
@@ -7293,7 +7290,7 @@
     </row>
     <row r="95" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>540</v>
@@ -7310,7 +7307,7 @@
     </row>
     <row r="96" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>540</v>
@@ -7324,7 +7321,7 @@
     </row>
     <row r="97" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>540</v>
@@ -7341,7 +7338,7 @@
     </row>
     <row r="98" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>540</v>
@@ -7358,7 +7355,7 @@
     </row>
     <row r="99" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>540</v>
@@ -7375,7 +7372,7 @@
     </row>
     <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>540</v>
@@ -7392,7 +7389,7 @@
     </row>
     <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>540</v>
@@ -7409,7 +7406,7 @@
     </row>
     <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>540</v>
@@ -7426,7 +7423,7 @@
     </row>
     <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>540</v>
@@ -7440,7 +7437,7 @@
     </row>
     <row r="104" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>540</v>
@@ -7457,7 +7454,7 @@
     </row>
     <row r="105" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>540</v>
@@ -7474,7 +7471,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>540</v>
@@ -7491,7 +7488,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>540</v>
@@ -7508,7 +7505,7 @@
     </row>
     <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>540</v>
@@ -7525,7 +7522,7 @@
     </row>
     <row r="109" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>541</v>
@@ -7539,7 +7536,7 @@
     </row>
     <row r="110" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>540</v>
@@ -7556,7 +7553,7 @@
     </row>
     <row r="111" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>540</v>
@@ -7573,7 +7570,7 @@
     </row>
     <row r="112" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>540</v>
@@ -7587,7 +7584,7 @@
     </row>
     <row r="113" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>540</v>
@@ -7604,7 +7601,7 @@
     </row>
     <row r="114" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>540</v>
@@ -7621,7 +7618,7 @@
     </row>
     <row r="115" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>540</v>
@@ -7638,7 +7635,7 @@
     </row>
     <row r="116" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>541</v>
@@ -7652,7 +7649,7 @@
     </row>
     <row r="117" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>540</v>
@@ -7666,7 +7663,7 @@
     </row>
     <row r="118" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>540</v>
@@ -7680,7 +7677,7 @@
     </row>
     <row r="119" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>540</v>
@@ -7697,7 +7694,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>540</v>
@@ -7714,7 +7711,7 @@
     </row>
     <row r="121" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>540</v>
@@ -7731,7 +7728,7 @@
     </row>
     <row r="122" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>540</v>
@@ -7748,7 +7745,7 @@
     </row>
     <row r="123" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>540</v>
@@ -7765,7 +7762,7 @@
     </row>
     <row r="124" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>540</v>
@@ -7782,7 +7779,7 @@
     </row>
     <row r="125" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>540</v>
@@ -7799,7 +7796,7 @@
     </row>
     <row r="126" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>540</v>
@@ -7816,7 +7813,7 @@
     </row>
     <row r="127" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>540</v>
@@ -7833,7 +7830,7 @@
     </row>
     <row r="128" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>540</v>
@@ -7850,7 +7847,7 @@
     </row>
     <row r="129" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>540</v>
@@ -7867,7 +7864,7 @@
     </row>
     <row r="130" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>540</v>
@@ -7884,7 +7881,7 @@
     </row>
     <row r="131" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>540</v>
@@ -7901,7 +7898,7 @@
     </row>
     <row r="132" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>540</v>
@@ -7918,7 +7915,7 @@
     </row>
     <row r="133" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>540</v>
@@ -7935,7 +7932,7 @@
     </row>
     <row r="134" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>540</v>
@@ -7952,7 +7949,7 @@
     </row>
     <row r="135" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>540</v>
@@ -7969,7 +7966,7 @@
     </row>
     <row r="136" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>540</v>
@@ -7986,7 +7983,7 @@
     </row>
     <row r="137" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>540</v>
@@ -8003,7 +8000,7 @@
     </row>
     <row r="138" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>540</v>
@@ -8020,7 +8017,7 @@
     </row>
     <row r="139" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>540</v>
@@ -8037,7 +8034,7 @@
     </row>
     <row r="140" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>540</v>
@@ -8054,7 +8051,7 @@
     </row>
     <row r="141" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>540</v>
@@ -8071,7 +8068,7 @@
     </row>
     <row r="142" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>540</v>
@@ -8085,7 +8082,7 @@
     </row>
     <row r="143" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>540</v>
@@ -8102,7 +8099,7 @@
     </row>
     <row r="144" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>540</v>
@@ -8119,7 +8116,7 @@
     </row>
     <row r="145" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>540</v>
@@ -8136,7 +8133,7 @@
     </row>
     <row r="146" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>540</v>
@@ -8153,7 +8150,7 @@
     </row>
     <row r="147" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>540</v>
@@ -8167,7 +8164,7 @@
     </row>
     <row r="148" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>540</v>
@@ -8181,7 +8178,7 @@
     </row>
     <row r="149" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>540</v>
@@ -8195,7 +8192,7 @@
     </row>
     <row r="150" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>540</v>
@@ -8209,7 +8206,7 @@
     </row>
     <row r="151" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>540</v>
@@ -8223,7 +8220,7 @@
     </row>
     <row r="152" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>540</v>
@@ -8240,7 +8237,7 @@
     </row>
     <row r="153" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>540</v>
@@ -8257,7 +8254,7 @@
     </row>
     <row r="154" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>540</v>
@@ -8274,7 +8271,7 @@
     </row>
     <row r="155" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>540</v>
@@ -8291,7 +8288,7 @@
     </row>
     <row r="156" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>540</v>
@@ -8308,7 +8305,7 @@
     </row>
     <row r="157" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>540</v>
@@ -8325,7 +8322,7 @@
     </row>
     <row r="158" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>540</v>
@@ -8342,7 +8339,7 @@
     </row>
     <row r="159" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>540</v>
@@ -8359,7 +8356,7 @@
     </row>
     <row r="160" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>540</v>
@@ -8376,7 +8373,7 @@
     </row>
     <row r="161" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>540</v>
@@ -8393,7 +8390,7 @@
     </row>
     <row r="162" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>540</v>
@@ -8410,7 +8407,7 @@
     </row>
     <row r="163" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>540</v>
@@ -8427,7 +8424,7 @@
     </row>
     <row r="164" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>540</v>
@@ -8444,7 +8441,7 @@
     </row>
     <row r="165" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>540</v>
@@ -8461,7 +8458,7 @@
     </row>
     <row r="166" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>540</v>
@@ -8478,7 +8475,7 @@
     </row>
     <row r="167" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>540</v>
@@ -8495,7 +8492,7 @@
     </row>
     <row r="168" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>540</v>
@@ -8512,7 +8509,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>541</v>
@@ -8529,7 +8526,7 @@
     </row>
     <row r="170" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>540</v>
@@ -8546,7 +8543,7 @@
     </row>
     <row r="171" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>540</v>
@@ -8560,7 +8557,7 @@
     </row>
     <row r="172" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>540</v>
@@ -8574,7 +8571,7 @@
     </row>
     <row r="173" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>540</v>
@@ -8591,7 +8588,7 @@
     </row>
     <row r="174" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>540</v>
@@ -8608,7 +8605,7 @@
     </row>
     <row r="175" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>540</v>
@@ -8622,7 +8619,7 @@
     </row>
     <row r="176" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>540</v>
@@ -8636,7 +8633,7 @@
     </row>
     <row r="177" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>540</v>
@@ -8650,7 +8647,7 @@
     </row>
     <row r="178" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>540</v>
@@ -8664,7 +8661,7 @@
     </row>
     <row r="179" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>540</v>
@@ -8678,7 +8675,7 @@
     </row>
     <row r="180" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>540</v>
@@ -8692,7 +8689,7 @@
     </row>
     <row r="181" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>540</v>
@@ -8706,7 +8703,7 @@
     </row>
     <row r="182" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>540</v>
@@ -8723,7 +8720,7 @@
     </row>
     <row r="183" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>540</v>
@@ -8737,7 +8734,7 @@
     </row>
     <row r="184" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>540</v>
@@ -8751,7 +8748,7 @@
     </row>
     <row r="185" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>540</v>
@@ -8768,7 +8765,7 @@
     </row>
     <row r="186" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>540</v>
@@ -8785,7 +8782,7 @@
     </row>
     <row r="187" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>540</v>
@@ -8802,7 +8799,7 @@
     </row>
     <row r="188" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>540</v>
@@ -8819,7 +8816,7 @@
     </row>
     <row r="189" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>540</v>
@@ -8836,7 +8833,7 @@
     </row>
     <row r="190" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>540</v>
@@ -8853,7 +8850,7 @@
     </row>
     <row r="191" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>540</v>
@@ -8870,7 +8867,7 @@
     </row>
     <row r="192" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>540</v>
@@ -8887,7 +8884,7 @@
     </row>
     <row r="193" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>540</v>
@@ -8904,7 +8901,7 @@
     </row>
     <row r="194" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>540</v>
@@ -8921,7 +8918,7 @@
     </row>
     <row r="195" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>540</v>
@@ -8938,7 +8935,7 @@
     </row>
     <row r="196" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>540</v>
@@ -8955,7 +8952,7 @@
     </row>
     <row r="197" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>540</v>
@@ -8972,7 +8969,7 @@
     </row>
     <row r="198" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>540</v>
@@ -8989,7 +8986,7 @@
     </row>
     <row r="199" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>540</v>
@@ -9006,7 +9003,7 @@
     </row>
     <row r="200" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>540</v>
@@ -9023,7 +9020,7 @@
     </row>
     <row r="201" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>540</v>
@@ -9040,7 +9037,7 @@
     </row>
     <row r="202" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>540</v>
@@ -9057,7 +9054,7 @@
     </row>
     <row r="203" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>540</v>
@@ -9074,7 +9071,7 @@
     </row>
     <row r="204" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>540</v>
@@ -9091,7 +9088,7 @@
     </row>
     <row r="205" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>540</v>
@@ -9108,7 +9105,7 @@
     </row>
     <row r="206" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>540</v>
@@ -9125,7 +9122,7 @@
     </row>
     <row r="207" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>540</v>
@@ -9142,7 +9139,7 @@
     </row>
     <row r="208" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>540</v>
@@ -9159,7 +9156,7 @@
     </row>
     <row r="209" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>540</v>
@@ -9176,7 +9173,7 @@
     </row>
     <row r="210" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>540</v>
@@ -9193,7 +9190,7 @@
     </row>
     <row r="211" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>540</v>
@@ -9210,7 +9207,7 @@
     </row>
     <row r="212" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>540</v>
@@ -9227,7 +9224,7 @@
     </row>
     <row r="213" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>540</v>
@@ -9244,7 +9241,7 @@
     </row>
     <row r="214" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>540</v>
@@ -9261,7 +9258,7 @@
     </row>
     <row r="215" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>540</v>
@@ -9278,7 +9275,7 @@
     </row>
     <row r="216" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>540</v>
@@ -9295,7 +9292,7 @@
     </row>
     <row r="217" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>540</v>
@@ -9312,7 +9309,7 @@
     </row>
     <row r="218" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>540</v>
@@ -9329,7 +9326,7 @@
     </row>
     <row r="219" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>540</v>
@@ -9346,7 +9343,7 @@
     </row>
     <row r="220" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>540</v>
@@ -9363,7 +9360,7 @@
     </row>
     <row r="221" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>540</v>
@@ -9380,7 +9377,7 @@
     </row>
     <row r="222" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>540</v>
@@ -9397,7 +9394,7 @@
     </row>
     <row r="223" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>540</v>
@@ -9414,7 +9411,7 @@
     </row>
     <row r="224" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>540</v>
@@ -9431,7 +9428,7 @@
     </row>
     <row r="225" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>540</v>
@@ -9448,7 +9445,7 @@
     </row>
     <row r="226" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>540</v>
@@ -9465,7 +9462,7 @@
     </row>
     <row r="227" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>540</v>
@@ -9482,7 +9479,7 @@
     </row>
     <row r="228" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>540</v>
@@ -9499,7 +9496,7 @@
     </row>
     <row r="229" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>540</v>
@@ -9516,7 +9513,7 @@
     </row>
     <row r="230" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>540</v>
@@ -9533,7 +9530,7 @@
     </row>
     <row r="231" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>540</v>
@@ -9550,7 +9547,7 @@
     </row>
     <row r="232" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>540</v>
@@ -9567,7 +9564,7 @@
     </row>
     <row r="233" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>540</v>
@@ -9584,7 +9581,7 @@
     </row>
     <row r="234" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>540</v>
@@ -9601,7 +9598,7 @@
     </row>
     <row r="235" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>540</v>
@@ -9618,7 +9615,7 @@
     </row>
     <row r="236" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>540</v>
@@ -9635,7 +9632,7 @@
     </row>
     <row r="237" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>540</v>
@@ -9652,7 +9649,7 @@
     </row>
     <row r="238" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>540</v>
@@ -9669,7 +9666,7 @@
     </row>
     <row r="239" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>540</v>
@@ -9686,7 +9683,7 @@
     </row>
     <row r="240" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>540</v>
@@ -9703,7 +9700,7 @@
     </row>
     <row r="241" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>540</v>
@@ -9720,7 +9717,7 @@
     </row>
     <row r="242" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>540</v>
@@ -9737,7 +9734,7 @@
     </row>
     <row r="243" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>540</v>
@@ -9754,7 +9751,7 @@
     </row>
     <row r="244" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>540</v>
@@ -9771,7 +9768,7 @@
     </row>
     <row r="245" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>540</v>
@@ -9788,7 +9785,7 @@
     </row>
     <row r="246" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>540</v>
@@ -9805,7 +9802,7 @@
     </row>
     <row r="247" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>540</v>
@@ -9822,7 +9819,7 @@
     </row>
     <row r="248" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>540</v>
@@ -9839,7 +9836,7 @@
     </row>
     <row r="249" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>540</v>
@@ -9856,7 +9853,7 @@
     </row>
     <row r="250" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>540</v>
@@ -9870,7 +9867,7 @@
     </row>
     <row r="251" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>540</v>
@@ -9887,7 +9884,7 @@
     </row>
     <row r="252" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>540</v>
@@ -9904,7 +9901,7 @@
     </row>
     <row r="253" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>540</v>
@@ -9921,7 +9918,7 @@
     </row>
     <row r="254" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>540</v>
@@ -9938,7 +9935,7 @@
     </row>
     <row r="255" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>540</v>
@@ -9955,7 +9952,7 @@
     </row>
     <row r="256" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>540</v>
@@ -9972,7 +9969,7 @@
     </row>
     <row r="257" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>540</v>
@@ -9989,7 +9986,7 @@
     </row>
     <row r="258" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>540</v>
@@ -10006,7 +10003,7 @@
     </row>
     <row r="259" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>540</v>
@@ -10023,7 +10020,7 @@
     </row>
     <row r="260" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>540</v>
@@ -10040,7 +10037,7 @@
     </row>
     <row r="261" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>540</v>
@@ -10057,7 +10054,7 @@
     </row>
     <row r="262" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>540</v>
@@ -10074,7 +10071,7 @@
     </row>
     <row r="263" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>540</v>
@@ -10091,7 +10088,7 @@
     </row>
     <row r="264" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>540</v>
@@ -10108,7 +10105,7 @@
     </row>
     <row r="265" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>540</v>
@@ -10125,7 +10122,7 @@
     </row>
     <row r="266" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>540</v>
@@ -10142,7 +10139,7 @@
     </row>
     <row r="267" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>540</v>
@@ -10159,7 +10156,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>540</v>
@@ -10176,7 +10173,7 @@
     </row>
     <row r="269" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>540</v>
@@ -10193,7 +10190,7 @@
     </row>
     <row r="270" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>540</v>
@@ -10210,7 +10207,7 @@
     </row>
     <row r="271" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>540</v>
@@ -10227,7 +10224,7 @@
     </row>
     <row r="272" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>540</v>
@@ -10244,7 +10241,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>540</v>
@@ -10261,7 +10258,7 @@
     </row>
     <row r="274" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>540</v>
@@ -10278,7 +10275,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>540</v>
@@ -10295,7 +10292,7 @@
     </row>
     <row r="276" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>540</v>
@@ -10312,7 +10309,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>544</v>
@@ -10329,7 +10326,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>540</v>
@@ -10346,7 +10343,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>540</v>
@@ -10363,7 +10360,7 @@
     </row>
     <row r="280" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>540</v>
@@ -10380,7 +10377,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>540</v>
@@ -10397,7 +10394,7 @@
     </row>
     <row r="282" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>540</v>
@@ -10414,7 +10411,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>540</v>
@@ -10431,7 +10428,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>540</v>
@@ -10448,7 +10445,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>540</v>
@@ -10465,7 +10462,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>540</v>
@@ -10482,7 +10479,7 @@
     </row>
     <row r="287" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>540</v>
@@ -10499,7 +10496,7 @@
     </row>
     <row r="288" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>540</v>
@@ -10516,7 +10513,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>540</v>
@@ -10533,7 +10530,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>540</v>
@@ -10550,7 +10547,7 @@
     </row>
     <row r="291" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>540</v>
@@ -10567,7 +10564,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>540</v>
@@ -10584,7 +10581,7 @@
     </row>
     <row r="293" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>540</v>
@@ -10601,7 +10598,7 @@
     </row>
     <row r="294" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>540</v>
@@ -10618,7 +10615,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>540</v>
@@ -10635,7 +10632,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>540</v>
@@ -10652,7 +10649,7 @@
     </row>
     <row r="297" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>540</v>
@@ -10669,7 +10666,7 @@
     </row>
     <row r="298" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>540</v>
@@ -10686,7 +10683,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>540</v>
@@ -10703,7 +10700,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>540</v>
@@ -10717,7 +10714,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>540</v>
@@ -10734,7 +10731,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>540</v>
@@ -10751,7 +10748,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>540</v>
@@ -10768,7 +10765,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>540</v>
@@ -10785,7 +10782,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>540</v>
@@ -10802,7 +10799,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>540</v>
@@ -10819,7 +10816,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>540</v>
@@ -10836,7 +10833,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>540</v>
@@ -10853,7 +10850,7 @@
     </row>
     <row r="309" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>540</v>
@@ -10870,7 +10867,7 @@
     </row>
     <row r="310" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>540</v>
@@ -10887,7 +10884,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>540</v>
@@ -10904,7 +10901,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>540</v>
@@ -10921,7 +10918,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>540</v>
@@ -10938,7 +10935,7 @@
     </row>
     <row r="314" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B314" s="4" t="s">
         <v>540</v>
@@ -10955,7 +10952,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>540</v>
@@ -10972,7 +10969,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>540</v>
@@ -10989,7 +10986,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>540</v>
@@ -11006,7 +11003,7 @@
     </row>
     <row r="318" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B318" s="4" t="s">
         <v>540</v>
@@ -11023,7 +11020,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>540</v>
@@ -11040,7 +11037,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>540</v>
@@ -11057,7 +11054,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>540</v>
@@ -11074,7 +11071,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>540</v>
@@ -11091,7 +11088,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>540</v>
@@ -11108,7 +11105,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>540</v>
@@ -11125,7 +11122,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>540</v>
@@ -11142,7 +11139,7 @@
     </row>
     <row r="326" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>540</v>
@@ -11159,7 +11156,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>540</v>
@@ -11176,7 +11173,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>540</v>
@@ -11190,7 +11187,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>540</v>
@@ -11207,7 +11204,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>540</v>
@@ -11224,7 +11221,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>540</v>
@@ -11241,7 +11238,7 @@
     </row>
     <row r="332" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>540</v>
@@ -11258,7 +11255,7 @@
     </row>
     <row r="333" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>540</v>
@@ -11275,7 +11272,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>540</v>
@@ -11292,7 +11289,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>540</v>
@@ -11309,7 +11306,7 @@
     </row>
     <row r="336" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>540</v>
@@ -11326,7 +11323,7 @@
     </row>
     <row r="337" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>540</v>
@@ -11343,7 +11340,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>540</v>
@@ -11360,7 +11357,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>540</v>
@@ -11377,7 +11374,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>540</v>
@@ -11394,7 +11391,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>540</v>
@@ -11406,12 +11403,12 @@
         <v>556</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>540</v>
@@ -11428,7 +11425,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>540</v>
@@ -11445,7 +11442,7 @@
     </row>
     <row r="344" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>540</v>
@@ -11462,7 +11459,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>540</v>
@@ -11479,7 +11476,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>540</v>
@@ -11496,7 +11493,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>540</v>
@@ -11513,7 +11510,7 @@
     </row>
     <row r="348" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>540</v>
@@ -11530,7 +11527,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>540</v>
@@ -11547,7 +11544,7 @@
     </row>
     <row r="350" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>540</v>
@@ -11564,7 +11561,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>540</v>
@@ -11578,7 +11575,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>540</v>
@@ -11595,7 +11592,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>540</v>
@@ -11612,7 +11609,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>540</v>
@@ -11629,7 +11626,7 @@
     </row>
     <row r="355" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>540</v>
@@ -11646,7 +11643,7 @@
     </row>
     <row r="356" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>540</v>
@@ -11663,7 +11660,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>540</v>
@@ -11680,7 +11677,7 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>540</v>
@@ -11697,7 +11694,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>540</v>
@@ -11711,7 +11708,7 @@
     </row>
     <row r="360" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>540</v>
@@ -11728,7 +11725,7 @@
     </row>
     <row r="361" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>540</v>
@@ -11745,7 +11742,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>540</v>
@@ -11762,7 +11759,7 @@
     </row>
     <row r="363" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>540</v>
@@ -11779,7 +11776,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>540</v>
@@ -11796,7 +11793,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>540</v>
@@ -11813,7 +11810,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>540</v>
@@ -11827,7 +11824,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>540</v>
@@ -11841,7 +11838,7 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>540</v>
@@ -11858,7 +11855,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>540</v>
@@ -11872,7 +11869,7 @@
     </row>
     <row r="370" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B370" s="4" t="s">
         <v>540</v>
@@ -11889,7 +11886,7 @@
     </row>
     <row r="371" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B371" s="4" t="s">
         <v>540</v>
@@ -11906,7 +11903,7 @@
     </row>
     <row r="372" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B372" s="4" t="s">
         <v>540</v>
@@ -11923,7 +11920,7 @@
     </row>
     <row r="373" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>540</v>
@@ -11940,7 +11937,7 @@
     </row>
     <row r="374" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>540</v>
@@ -11957,7 +11954,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>540</v>
@@ -11971,7 +11968,7 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>540</v>
@@ -11985,7 +11982,7 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>540</v>
@@ -11997,12 +11994,12 @@
         <v>556</v>
       </c>
       <c r="E377" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>540</v>
@@ -12019,7 +12016,7 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>540</v>
@@ -12036,7 +12033,7 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>540</v>
@@ -12053,7 +12050,7 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>540</v>
@@ -12070,7 +12067,7 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>540</v>
@@ -12087,7 +12084,7 @@
     </row>
     <row r="383" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>540</v>
@@ -12104,7 +12101,7 @@
     </row>
     <row r="384" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>540</v>
@@ -12121,7 +12118,7 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>540</v>
@@ -12138,7 +12135,7 @@
     </row>
     <row r="386" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>540</v>
@@ -12155,7 +12152,7 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>540</v>
@@ -12172,7 +12169,7 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>540</v>
@@ -12189,7 +12186,7 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>540</v>
@@ -12206,7 +12203,7 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>540</v>
@@ -12223,7 +12220,7 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B391" s="4" t="s">
         <v>540</v>
@@ -12240,7 +12237,7 @@
     </row>
     <row r="392" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>540</v>
@@ -12257,7 +12254,7 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>540</v>
@@ -12269,12 +12266,12 @@
         <v>551</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>540</v>
@@ -12291,7 +12288,7 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B395" s="4" t="s">
         <v>540</v>
@@ -12308,7 +12305,7 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>540</v>
@@ -12325,7 +12322,7 @@
     </row>
     <row r="397" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>540</v>
@@ -12342,7 +12339,7 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>540</v>
@@ -12354,12 +12351,12 @@
         <v>551</v>
       </c>
       <c r="E398" s="3" t="s">
-        <v>650</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>540</v>
@@ -12373,7 +12370,7 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>540</v>
@@ -12390,7 +12387,7 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>540</v>
@@ -12407,7 +12404,7 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>540</v>
@@ -12424,7 +12421,7 @@
     </row>
     <row r="403" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>540</v>
@@ -12441,7 +12438,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>540</v>
@@ -12458,7 +12455,7 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>540</v>
@@ -12475,7 +12472,7 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B406" s="4" t="s">
         <v>540</v>
@@ -12492,7 +12489,7 @@
     </row>
     <row r="407" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>540</v>
@@ -12509,7 +12506,7 @@
     </row>
     <row r="408" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>540</v>
@@ -12526,7 +12523,7 @@
     </row>
     <row r="409" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>540</v>
@@ -12543,7 +12540,7 @@
     </row>
     <row r="410" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>540</v>
@@ -12560,7 +12557,7 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B411" s="4" t="s">
         <v>540</v>
@@ -12577,7 +12574,7 @@
     </row>
     <row r="412" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>540</v>
@@ -12594,7 +12591,7 @@
     </row>
     <row r="413" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>540</v>
@@ -12611,7 +12608,7 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>540</v>
@@ -12628,7 +12625,7 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B415" s="4" t="s">
         <v>540</v>
@@ -12645,7 +12642,7 @@
     </row>
     <row r="416" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>540</v>
@@ -12662,7 +12659,7 @@
     </row>
     <row r="417" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>540</v>
@@ -12679,7 +12676,7 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>540</v>
@@ -12696,7 +12693,7 @@
     </row>
     <row r="419" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>540</v>
@@ -12713,7 +12710,7 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>540</v>
@@ -12730,7 +12727,7 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>540</v>
@@ -12747,7 +12744,7 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>540</v>
@@ -12764,7 +12761,7 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>540</v>
@@ -12781,7 +12778,7 @@
     </row>
     <row r="424" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>540</v>
@@ -12798,7 +12795,7 @@
     </row>
     <row r="425" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>540</v>
@@ -12815,7 +12812,7 @@
     </row>
     <row r="426" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>540</v>
@@ -12827,12 +12824,12 @@
         <v>563</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>540</v>
@@ -12844,12 +12841,12 @@
         <v>551</v>
       </c>
       <c r="E427" s="3" t="s">
-        <v>650</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>540</v>
@@ -12866,7 +12863,7 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>540</v>
@@ -12883,7 +12880,7 @@
     </row>
     <row r="430" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>540</v>
@@ -12900,7 +12897,7 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>544</v>
@@ -12917,7 +12914,7 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>540</v>
@@ -12934,7 +12931,7 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B433" s="4" t="s">
         <v>540</v>
@@ -12951,7 +12948,7 @@
     </row>
     <row r="434" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>540</v>
@@ -12968,7 +12965,7 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>540</v>
@@ -12982,7 +12979,7 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B436" s="4" t="s">
         <v>540</v>
@@ -12999,7 +12996,7 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>540</v>
@@ -13016,7 +13013,7 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>540</v>
@@ -13028,12 +13025,12 @@
         <v>548</v>
       </c>
       <c r="E438" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B439" s="4" t="s">
         <v>540</v>
@@ -13045,12 +13042,12 @@
         <v>549</v>
       </c>
       <c r="E439" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>540</v>
@@ -13067,7 +13064,7 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B441" s="4" t="s">
         <v>540</v>
@@ -13084,7 +13081,7 @@
     </row>
     <row r="442" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>540</v>
@@ -13101,7 +13098,7 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>540</v>
@@ -13113,12 +13110,12 @@
         <v>556</v>
       </c>
       <c r="E443" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B444" s="4" t="s">
         <v>540</v>
@@ -13135,7 +13132,7 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>540</v>
@@ -13152,7 +13149,7 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>540</v>
@@ -13169,7 +13166,7 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B447" s="4" t="s">
         <v>540</v>
@@ -13186,7 +13183,7 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>540</v>
@@ -13198,12 +13195,12 @@
         <v>559</v>
       </c>
       <c r="E448" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>540</v>
@@ -13220,7 +13217,7 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>544</v>
@@ -13237,7 +13234,7 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>540</v>
@@ -13254,7 +13251,7 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>540</v>
@@ -13266,12 +13263,12 @@
         <v>548</v>
       </c>
       <c r="E452" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>540</v>
@@ -13288,7 +13285,7 @@
     </row>
     <row r="454" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>540</v>
@@ -13300,12 +13297,12 @@
         <v>549</v>
       </c>
       <c r="E454" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="455" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>540</v>
@@ -13317,12 +13314,12 @@
         <v>549</v>
       </c>
       <c r="E455" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>540</v>
@@ -13334,12 +13331,12 @@
         <v>556</v>
       </c>
       <c r="E456" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="457" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>540</v>
@@ -13351,12 +13348,12 @@
         <v>563</v>
       </c>
       <c r="E457" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="458" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>540</v>
@@ -13373,7 +13370,7 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>540</v>
@@ -13385,12 +13382,12 @@
         <v>554</v>
       </c>
       <c r="E459" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>540</v>
@@ -13402,12 +13399,12 @@
         <v>554</v>
       </c>
       <c r="E460" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="461" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>540</v>
@@ -13424,7 +13421,7 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462" s="3" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>540</v>
@@ -13441,7 +13438,7 @@
     </row>
     <row r="463" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>540</v>
@@ -13458,7 +13455,7 @@
     </row>
     <row r="464" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>540</v>
@@ -13470,12 +13467,12 @@
         <v>549</v>
       </c>
       <c r="E464" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>540</v>
@@ -13492,7 +13489,7 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>540</v>
@@ -13504,12 +13501,12 @@
         <v>559</v>
       </c>
       <c r="E466" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>540</v>
@@ -13526,7 +13523,7 @@
     </row>
     <row r="468" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>540</v>
@@ -13543,7 +13540,7 @@
     </row>
     <row r="469" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>540</v>
@@ -13560,7 +13557,7 @@
     </row>
     <row r="470" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>540</v>
@@ -13577,7 +13574,7 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>540</v>
@@ -13589,12 +13586,12 @@
         <v>559</v>
       </c>
       <c r="E471" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B472" s="4" t="s">
         <v>540</v>
@@ -13611,7 +13608,7 @@
     </row>
     <row r="473" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>540</v>
@@ -13628,7 +13625,7 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" s="3" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>540</v>
@@ -13642,7 +13639,7 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>540</v>
@@ -13654,12 +13651,12 @@
         <v>563</v>
       </c>
       <c r="E475" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="476" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>540</v>
@@ -13676,7 +13673,7 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>540</v>
@@ -13693,7 +13690,7 @@
     </row>
     <row r="478" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>540</v>
@@ -13710,7 +13707,7 @@
     </row>
     <row r="479" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>540</v>
@@ -13727,7 +13724,7 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>540</v>
@@ -13744,7 +13741,7 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>540</v>
@@ -13758,7 +13755,7 @@
     </row>
     <row r="482" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>540</v>
@@ -13775,7 +13772,7 @@
     </row>
     <row r="483" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>540</v>
@@ -13792,7 +13789,7 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" s="3" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B484" s="4" t="s">
         <v>540</v>
@@ -13809,7 +13806,7 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B485" s="4" t="s">
         <v>540</v>
@@ -13826,7 +13823,7 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" s="3" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>540</v>
@@ -13843,7 +13840,7 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>540</v>
@@ -13860,7 +13857,7 @@
     </row>
     <row r="488" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>540</v>
@@ -13877,7 +13874,7 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>540</v>
@@ -13891,7 +13888,7 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" s="3" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>540</v>
@@ -13908,7 +13905,7 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>540</v>
@@ -13925,7 +13922,7 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>540</v>
@@ -13942,7 +13939,7 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B493" s="3" t="s">
         <v>540</v>
@@ -13959,7 +13956,7 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>540</v>
@@ -13971,12 +13968,12 @@
         <v>563</v>
       </c>
       <c r="E494" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>540</v>
@@ -13988,12 +13985,12 @@
         <v>559</v>
       </c>
       <c r="E495" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>540</v>
@@ -14007,7 +14004,7 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>540</v>
@@ -14019,12 +14016,12 @@
         <v>559</v>
       </c>
       <c r="E497" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" s="3" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>540</v>
@@ -14036,12 +14033,12 @@
         <v>563</v>
       </c>
       <c r="E498" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>540</v>
@@ -14053,12 +14050,12 @@
         <v>559</v>
       </c>
       <c r="E499" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>540</v>
@@ -14075,7 +14072,7 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" s="3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B501" s="4" t="s">
         <v>540</v>
@@ -14092,7 +14089,7 @@
     </row>
     <row r="502" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>540</v>
@@ -14109,7 +14106,7 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" s="3" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>540</v>
@@ -14126,7 +14123,7 @@
     </row>
     <row r="504" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>546</v>
@@ -14143,7 +14140,7 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" s="3" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B505" s="4" t="s">
         <v>540</v>
@@ -14155,12 +14152,12 @@
         <v>559</v>
       </c>
       <c r="E505" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>540</v>
@@ -14174,7 +14171,7 @@
     </row>
     <row r="507" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>540</v>
@@ -14191,7 +14188,7 @@
     </row>
     <row r="508" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>540</v>
@@ -14208,7 +14205,7 @@
     </row>
     <row r="509" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>540</v>
@@ -14225,7 +14222,7 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" s="3" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>540</v>
@@ -14237,12 +14234,12 @@
         <v>563</v>
       </c>
       <c r="E510" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="511" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>540</v>
@@ -14259,7 +14256,7 @@
     </row>
     <row r="512" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>540</v>
@@ -14276,7 +14273,7 @@
     </row>
     <row r="513" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>540</v>
@@ -14293,7 +14290,7 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" s="3" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>540</v>
@@ -14310,7 +14307,7 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" s="3" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B515" s="4" t="s">
         <v>540</v>
@@ -14327,7 +14324,7 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" s="3" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B516" s="3" t="s">
         <v>540</v>
@@ -14341,7 +14338,7 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" s="3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>540</v>
@@ -14353,12 +14350,12 @@
         <v>563</v>
       </c>
       <c r="E517" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" s="3" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>540</v>
@@ -14372,7 +14369,7 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" s="3" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B519" s="3" t="s">
         <v>540</v>
@@ -14384,12 +14381,12 @@
         <v>559</v>
       </c>
       <c r="E519" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="520" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>540</v>
@@ -14406,7 +14403,7 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521" s="3" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B521" s="3" t="s">
         <v>540</v>
@@ -14418,12 +14415,12 @@
         <v>551</v>
       </c>
       <c r="E521" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" s="3" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B522" s="3" t="s">
         <v>540</v>
@@ -14435,12 +14432,12 @@
         <v>563</v>
       </c>
       <c r="E522" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>540</v>
@@ -14457,7 +14454,7 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" s="3" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>544</v>
@@ -14474,7 +14471,7 @@
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525" s="3" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>540</v>
@@ -14488,7 +14485,7 @@
     </row>
     <row r="526" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>540</v>
@@ -14505,7 +14502,7 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527" s="3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>540</v>
@@ -14522,7 +14519,7 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528" s="3" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>540</v>
@@ -14539,7 +14536,7 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>540</v>
@@ -14551,12 +14548,12 @@
         <v>559</v>
       </c>
       <c r="E529" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" s="3" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>540</v>
@@ -14568,12 +14565,12 @@
         <v>563</v>
       </c>
       <c r="E530" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="531" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>540</v>
@@ -14590,7 +14587,7 @@
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B532" s="4" t="s">
         <v>540</v>
@@ -14607,7 +14604,7 @@
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>544</v>
@@ -14624,7 +14621,7 @@
     </row>
     <row r="534" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>544</v>
@@ -14638,7 +14635,7 @@
     </row>
     <row r="535" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>544</v>
@@ -14655,7 +14652,7 @@
     </row>
     <row r="536" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>544</v>
@@ -14672,7 +14669,7 @@
     </row>
     <row r="537" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A537" s="3" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>544</v>
@@ -14689,7 +14686,7 @@
     </row>
     <row r="538" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>542</v>
@@ -14701,12 +14698,12 @@
         <v>555</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="539" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A539" s="3" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>542</v>
@@ -14723,7 +14720,7 @@
     </row>
     <row r="540" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>542</v>
@@ -14740,7 +14737,7 @@
     </row>
     <row r="541" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A541" s="3" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>542</v>
@@ -14757,7 +14754,7 @@
     </row>
     <row r="542" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A542" s="3" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>542</v>
@@ -14774,7 +14771,7 @@
     </row>
     <row r="543" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>542</v>
@@ -14788,7 +14785,7 @@
     </row>
     <row r="544" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A544" s="3" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>544</v>
@@ -14805,7 +14802,7 @@
     </row>
     <row r="545" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A545" s="3" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>542</v>
@@ -14822,7 +14819,7 @@
     </row>
     <row r="546" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A546" s="3" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>542</v>
@@ -14839,7 +14836,7 @@
     </row>
     <row r="547" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>542</v>
@@ -14854,7 +14851,7 @@
     </row>
     <row r="548" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A548" s="3" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>542</v>
@@ -14871,7 +14868,7 @@
     </row>
     <row r="549" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>542</v>
@@ -14888,7 +14885,7 @@
     </row>
     <row r="550" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A550" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>542</v>
@@ -14903,7 +14900,7 @@
     </row>
     <row r="551" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B551" s="1" t="s">
         <v>544</v>
@@ -14917,7 +14914,7 @@
     </row>
     <row r="552" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>544</v>
@@ -14929,12 +14926,12 @@
         <v>554</v>
       </c>
       <c r="E552" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="553" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>544</v>
@@ -14948,7 +14945,7 @@
     </row>
     <row r="554" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A554" s="3" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>542</v>
@@ -14962,7 +14959,7 @@
     </row>
     <row r="555" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>544</v>
@@ -14979,7 +14976,7 @@
     </row>
     <row r="556" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A556" s="3" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>542</v>
@@ -14994,7 +14991,7 @@
     </row>
     <row r="557" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>542</v>
@@ -15009,7 +15006,7 @@
     </row>
     <row r="558" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>542</v>
@@ -15026,7 +15023,7 @@
     </row>
     <row r="559" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B559" s="1" t="s">
         <v>544</v>
@@ -15043,7 +15040,7 @@
     </row>
     <row r="560" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A560" s="3" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>544</v>
@@ -15057,7 +15054,7 @@
     </row>
     <row r="561" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B561" s="1" t="s">
         <v>544</v>
@@ -15074,7 +15071,7 @@
     </row>
     <row r="562" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A562" s="3" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>544</v>
@@ -15088,7 +15085,7 @@
     </row>
     <row r="563" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>542</v>
@@ -15100,12 +15097,12 @@
         <v>553</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="564" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A564" s="3" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>542</v>
@@ -15119,7 +15116,7 @@
     </row>
     <row r="565" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A565" s="3" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>542</v>
@@ -15133,7 +15130,7 @@
     </row>
     <row r="566" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>542</v>
@@ -15145,12 +15142,12 @@
         <v>562</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="567" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A567" s="3" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B567" s="1" t="s">
         <v>544</v>
@@ -15165,7 +15162,7 @@
     </row>
     <row r="568" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A568" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>542</v>
@@ -15180,7 +15177,7 @@
     </row>
     <row r="569" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A569" s="3" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B569" s="1" t="s">
         <v>544</v>
@@ -15197,7 +15194,7 @@
     </row>
     <row r="570" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>544</v>
@@ -15212,7 +15209,7 @@
     </row>
     <row r="571" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A571" s="3" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>542</v>
@@ -15224,12 +15221,12 @@
         <v>553</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="572" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>544</v>
@@ -15244,7 +15241,7 @@
     </row>
     <row r="573" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A573" s="3" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B573" s="1" t="s">
         <v>542</v>
@@ -15261,7 +15258,7 @@
     </row>
     <row r="574" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A574" s="3" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B574" s="1" t="s">
         <v>542</v>
@@ -15278,7 +15275,7 @@
     </row>
     <row r="575" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A575" s="3" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B575" s="1" t="s">
         <v>544</v>
@@ -15293,7 +15290,7 @@
     </row>
     <row r="576" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A576" s="3" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B576" s="1" t="s">
         <v>544</v>
@@ -15308,7 +15305,7 @@
     </row>
     <row r="577" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A577" s="3" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>542</v>
@@ -15323,7 +15320,7 @@
     </row>
     <row r="578" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A578" s="3" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B578" s="1" t="s">
         <v>542</v>
@@ -15338,7 +15335,7 @@
     </row>
     <row r="579" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A579" s="3" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B579" s="1" t="s">
         <v>542</v>
@@ -15353,7 +15350,7 @@
     </row>
     <row r="580" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A580" s="3" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>542</v>
@@ -15368,7 +15365,7 @@
     </row>
     <row r="581" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A581" s="3" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B581" s="1" t="s">
         <v>542</v>
@@ -15383,7 +15380,7 @@
     </row>
     <row r="582" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A582" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>544</v>
@@ -15398,7 +15395,7 @@
     </row>
     <row r="583" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A583" s="3" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B583" s="1" t="s">
         <v>542</v>
@@ -15415,7 +15412,7 @@
     </row>
     <row r="584" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A584" s="3" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>542</v>
@@ -15432,7 +15429,7 @@
     </row>
     <row r="585" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A585" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B585" s="1" t="s">
         <v>542</v>
@@ -15449,7 +15446,7 @@
     </row>
     <row r="586" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A586" s="3" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B586" s="1" t="s">
         <v>542</v>
@@ -15464,7 +15461,7 @@
     </row>
     <row r="587" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A587" s="3" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>542</v>
@@ -15481,7 +15478,7 @@
     </row>
     <row r="588" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A588" s="3" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B588" s="1" t="s">
         <v>542</v>
@@ -15498,7 +15495,7 @@
     </row>
     <row r="589" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A589" s="3" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>544</v>
@@ -15512,7 +15509,7 @@
     </row>
     <row r="590" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A590" s="3" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>544</v>
@@ -15526,7 +15523,7 @@
     </row>
     <row r="591" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A591" s="3" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B591" s="1" t="s">
         <v>544</v>
@@ -15543,7 +15540,7 @@
     </row>
     <row r="592" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A592" s="3" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>544</v>
@@ -15560,7 +15557,7 @@
     </row>
     <row r="593" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A593" s="3" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>544</v>
@@ -15574,7 +15571,7 @@
     </row>
     <row r="594" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A594" s="3" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B594" s="1" t="s">
         <v>542</v>
@@ -15588,7 +15585,7 @@
     </row>
     <row r="595" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B595" s="1" t="s">
         <v>544</v>
@@ -15602,7 +15599,7 @@
     </row>
     <row r="596" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A596" s="3" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B596" s="1" t="s">
         <v>542</v>
@@ -15616,7 +15613,7 @@
     </row>
     <row r="597" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A597" s="3" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B597" s="1" t="s">
         <v>544</v>
@@ -15630,7 +15627,7 @@
     </row>
     <row r="598" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A598" s="3" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B598" s="1" t="s">
         <v>544</v>
@@ -15647,7 +15644,7 @@
     </row>
     <row r="599" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A599" s="3" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>542</v>
@@ -15662,7 +15659,7 @@
     </row>
     <row r="600" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A600" s="3" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B600" s="1" t="s">
         <v>544</v>
@@ -15677,7 +15674,7 @@
     </row>
     <row r="601" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A601" s="3" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B601" s="1" t="s">
         <v>544</v>
@@ -15692,7 +15689,7 @@
     </row>
     <row r="602" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B602" s="1" t="s">
         <v>544</v>
@@ -15706,7 +15703,7 @@
     </row>
     <row r="603" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A603" s="3" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>544</v>
@@ -15723,7 +15720,7 @@
     </row>
     <row r="604" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A604" s="3" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B604" s="1" t="s">
         <v>542</v>
@@ -15738,7 +15735,7 @@
     </row>
     <row r="605" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A605" s="3" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B605" s="1" t="s">
         <v>542</v>
@@ -15752,7 +15749,7 @@
     </row>
     <row r="606" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A606" s="3" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B606" s="1" t="s">
         <v>542</v>
@@ -15767,7 +15764,7 @@
     </row>
     <row r="607" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A607" s="3" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B607" s="1" t="s">
         <v>542</v>
@@ -15781,7 +15778,7 @@
     </row>
     <row r="608" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A608" s="3" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B608" s="1" t="s">
         <v>542</v>
@@ -15796,7 +15793,7 @@
     </row>
     <row r="609" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A609" s="3" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B609" s="1" t="s">
         <v>542</v>
@@ -15808,12 +15805,12 @@
         <v>566</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="610" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A610" s="3" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B610" s="1" t="s">
         <v>542</v>
@@ -15828,7 +15825,7 @@
     </row>
     <row r="611" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A611" s="3" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B611" s="1" t="s">
         <v>544</v>
@@ -15845,7 +15842,7 @@
     </row>
     <row r="612" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A612" s="3" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B612" s="1" t="s">
         <v>544</v>
@@ -15859,7 +15856,7 @@
     </row>
     <row r="613" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A613" s="3" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B613" s="1" t="s">
         <v>542</v>
@@ -15874,7 +15871,7 @@
     </row>
     <row r="614" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A614" s="3" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B614" s="1" t="s">
         <v>542</v>
@@ -15889,7 +15886,7 @@
     </row>
     <row r="615" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A615" s="3" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B615" s="1" t="s">
         <v>542</v>
@@ -15903,7 +15900,7 @@
     </row>
     <row r="616" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A616" s="3" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B616" s="1" t="s">
         <v>542</v>
@@ -15918,7 +15915,7 @@
     </row>
     <row r="617" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A617" s="3" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B617" s="1" t="s">
         <v>542</v>
@@ -15933,7 +15930,7 @@
     </row>
     <row r="618" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A618" s="3" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B618" s="1" t="s">
         <v>542</v>
@@ -15945,12 +15942,12 @@
         <v>556</v>
       </c>
       <c r="E618" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="619" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A619" s="3" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B619" s="1" t="s">
         <v>542</v>
@@ -15964,7 +15961,7 @@
     </row>
     <row r="620" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B620" s="1" t="s">
         <v>542</v>
@@ -15978,7 +15975,7 @@
     </row>
     <row r="621" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A621" s="3" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B621" s="1" t="s">
         <v>542</v>
@@ -15990,12 +15987,12 @@
         <v>556</v>
       </c>
       <c r="E621" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="622" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A622" s="3" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B622" s="1" t="s">
         <v>542</v>
@@ -16009,7 +16006,7 @@
     </row>
     <row r="623" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A623" s="3" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B623" s="1" t="s">
         <v>542</v>
@@ -16023,7 +16020,7 @@
     </row>
     <row r="624" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A624" s="3" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B624" s="1" t="s">
         <v>542</v>
@@ -16037,7 +16034,7 @@
     </row>
     <row r="625" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A625" s="3" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B625" s="1" t="s">
         <v>542</v>
@@ -16051,7 +16048,7 @@
     </row>
     <row r="626" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A626" s="3" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B626" s="1" t="s">
         <v>542</v>
@@ -16065,7 +16062,7 @@
     </row>
     <row r="627" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A627" s="3" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B627" s="1" t="s">
         <v>542</v>
@@ -16082,7 +16079,7 @@
     </row>
     <row r="628" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A628" s="3" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B628" s="1" t="s">
         <v>542</v>
@@ -16096,7 +16093,7 @@
     </row>
     <row r="629" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A629" s="3" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B629" s="1" t="s">
         <v>542</v>
@@ -16113,7 +16110,7 @@
     </row>
     <row r="630" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A630" s="3" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B630" s="1" t="s">
         <v>542</v>
@@ -16127,7 +16124,7 @@
     </row>
     <row r="631" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A631" s="3" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B631" s="1" t="s">
         <v>542</v>
@@ -16144,7 +16141,7 @@
     </row>
     <row r="632" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A632" s="3" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B632" s="1" t="s">
         <v>542</v>
@@ -16161,7 +16158,7 @@
     </row>
     <row r="633" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B633" s="1" t="s">
         <v>542</v>
@@ -16178,7 +16175,7 @@
     </row>
     <row r="634" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B634" s="1" t="s">
         <v>542</v>
@@ -16195,7 +16192,7 @@
     </row>
     <row r="635" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A635" s="3" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B635" s="1" t="s">
         <v>542</v>
@@ -16212,7 +16209,7 @@
     </row>
     <row r="636" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A636" s="3" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B636" s="1" t="s">
         <v>542</v>
@@ -16229,7 +16226,7 @@
     </row>
     <row r="637" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A637" s="3" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B637" s="1" t="s">
         <v>542</v>
@@ -16246,7 +16243,7 @@
     </row>
     <row r="638" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A638" s="3" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B638" s="1" t="s">
         <v>542</v>
@@ -16263,7 +16260,7 @@
     </row>
     <row r="639" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A639" s="3" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B639" s="1" t="s">
         <v>542</v>
@@ -16275,12 +16272,12 @@
         <v>555</v>
       </c>
       <c r="E639" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="640" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A640" s="3" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B640" s="1" t="s">
         <v>542</v>
@@ -16292,12 +16289,12 @@
         <v>553</v>
       </c>
       <c r="E640" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="641" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A641" s="3" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B641" s="1" t="s">
         <v>542</v>
@@ -16309,12 +16306,12 @@
         <v>555</v>
       </c>
       <c r="E641" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="642" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A642" s="3" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B642" s="1" t="s">
         <v>542</v>
@@ -16331,7 +16328,7 @@
     </row>
     <row r="643" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A643" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B643" s="1" t="s">
         <v>542</v>
@@ -16348,7 +16345,7 @@
     </row>
     <row r="644" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A644" s="3" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B644" s="1" t="s">
         <v>542</v>
@@ -16365,7 +16362,7 @@
     </row>
     <row r="645" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A645" s="3" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B645" s="1" t="s">
         <v>542</v>
@@ -16382,7 +16379,7 @@
     </row>
     <row r="646" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A646" s="3" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B646" s="1" t="s">
         <v>542</v>
@@ -16399,7 +16396,7 @@
     </row>
     <row r="647" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A647" s="3" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B647" s="1" t="s">
         <v>542</v>
@@ -16416,7 +16413,7 @@
     </row>
     <row r="648" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A648" s="3" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B648" s="1" t="s">
         <v>542</v>
@@ -16430,7 +16427,7 @@
     </row>
     <row r="649" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A649" s="3" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B649" s="1" t="s">
         <v>542</v>
@@ -16447,7 +16444,7 @@
     </row>
     <row r="650" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A650" s="3" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B650" s="1" t="s">
         <v>542</v>
@@ -16461,7 +16458,7 @@
     </row>
     <row r="651" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A651" s="3" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B651" s="1" t="s">
         <v>542</v>
@@ -16473,12 +16470,12 @@
         <v>563</v>
       </c>
       <c r="E651" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="652" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A652" s="3" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B652" s="1" t="s">
         <v>542</v>
@@ -16490,12 +16487,12 @@
         <v>563</v>
       </c>
       <c r="E652" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="653" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A653" s="3" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B653" s="1" t="s">
         <v>542</v>
@@ -16507,12 +16504,12 @@
         <v>563</v>
       </c>
       <c r="E653" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="654" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A654" s="3" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B654" s="1" t="s">
         <v>542</v>
@@ -16524,12 +16521,12 @@
         <v>563</v>
       </c>
       <c r="E654" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="655" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A655" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B655" s="1" t="s">
         <v>542</v>
@@ -16543,7 +16540,7 @@
     </row>
     <row r="656" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A656" s="3" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B656" s="1" t="s">
         <v>542</v>
@@ -16555,12 +16552,12 @@
         <v>563</v>
       </c>
       <c r="E656" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="657" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A657" s="3" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B657" s="1" t="s">
         <v>542</v>
@@ -16574,7 +16571,7 @@
     </row>
     <row r="658" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A658" s="3" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B658" s="1" t="s">
         <v>542</v>
@@ -16586,12 +16583,12 @@
         <v>563</v>
       </c>
       <c r="E658" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="659" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A659" s="3" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B659" s="1" t="s">
         <v>542</v>
@@ -16603,12 +16600,12 @@
         <v>563</v>
       </c>
       <c r="E659" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="660" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A660" s="3" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B660" s="1" t="s">
         <v>544</v>
@@ -16625,7 +16622,7 @@
     </row>
     <row r="661" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A661" s="3" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B661" s="1" t="s">
         <v>544</v>
@@ -16639,7 +16636,7 @@
     </row>
     <row r="662" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A662" s="3" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B662" s="1" t="s">
         <v>544</v>
@@ -16653,7 +16650,7 @@
     </row>
     <row r="663" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A663" s="3" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B663" s="1" t="s">
         <v>544</v>
@@ -16667,7 +16664,7 @@
     </row>
     <row r="664" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A664" s="3" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B664" s="1" t="s">
         <v>544</v>
@@ -16681,7 +16678,7 @@
     </row>
     <row r="665" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A665" s="3" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B665" s="1" t="s">
         <v>544</v>
@@ -16695,7 +16692,7 @@
     </row>
     <row r="666" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A666" s="3" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B666" s="1" t="s">
         <v>544</v>
@@ -16709,7 +16706,7 @@
     </row>
     <row r="667" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A667" s="3" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B667" s="1" t="s">
         <v>544</v>
@@ -16723,7 +16720,7 @@
     </row>
     <row r="668" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A668" s="3" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B668" s="1" t="s">
         <v>544</v>
@@ -16737,7 +16734,7 @@
     </row>
     <row r="669" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A669" s="3" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B669" s="1" t="s">
         <v>544</v>
@@ -16751,7 +16748,7 @@
     </row>
     <row r="670" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A670" s="3" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B670" s="1" t="s">
         <v>542</v>
@@ -16765,7 +16762,7 @@
     </row>
     <row r="671" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A671" s="3" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B671" s="1" t="s">
         <v>542</v>
@@ -16782,7 +16779,7 @@
     </row>
     <row r="672" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A672" s="3" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B672" s="1" t="s">
         <v>542</v>
@@ -16799,7 +16796,7 @@
     </row>
     <row r="673" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A673" s="3" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B673" s="1" t="s">
         <v>542</v>
@@ -16811,12 +16808,12 @@
         <v>563</v>
       </c>
       <c r="E673" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="674" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A674" s="3" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B674" s="1" t="s">
         <v>542</v>
@@ -16830,7 +16827,7 @@
     </row>
     <row r="675" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A675" s="3" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B675" s="1" t="s">
         <v>542</v>
@@ -16847,7 +16844,7 @@
     </row>
     <row r="676" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A676" s="3" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B676" s="1" t="s">
         <v>544</v>
@@ -16864,7 +16861,7 @@
     </row>
     <row r="677" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A677" s="3" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B677" s="1" t="s">
         <v>544</v>
@@ -16878,7 +16875,7 @@
     </row>
     <row r="678" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A678" s="3" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B678" s="1" t="s">
         <v>544</v>
@@ -16892,7 +16889,7 @@
     </row>
     <row r="679" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A679" s="3" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B679" s="1" t="s">
         <v>544</v>
@@ -16906,7 +16903,7 @@
     </row>
     <row r="680" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A680" s="3" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B680" s="1" t="s">
         <v>544</v>
@@ -16923,7 +16920,7 @@
     </row>
     <row r="681" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A681" s="3" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B681" s="1" t="s">
         <v>544</v>
@@ -16940,7 +16937,7 @@
     </row>
     <row r="682" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A682" s="3" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B682" s="1" t="s">
         <v>544</v>
@@ -16952,12 +16949,12 @@
         <v>549</v>
       </c>
       <c r="E682" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="683" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A683" s="3" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B683" s="1" t="s">
         <v>544</v>
@@ -16971,7 +16968,7 @@
     </row>
     <row r="684" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A684" s="3" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B684" s="1" t="s">
         <v>544</v>
@@ -16988,7 +16985,7 @@
     </row>
     <row r="685" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A685" s="3" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B685" s="1" t="s">
         <v>544</v>
@@ -17002,7 +16999,7 @@
     </row>
     <row r="686" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A686" s="3" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B686" s="1" t="s">
         <v>544</v>
@@ -17016,7 +17013,7 @@
     </row>
     <row r="687" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A687" s="3" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B687" s="1" t="s">
         <v>544</v>
@@ -17028,12 +17025,12 @@
         <v>556</v>
       </c>
       <c r="E687" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="688" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A688" s="3" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B688" s="1" t="s">
         <v>544</v>
@@ -17047,7 +17044,7 @@
     </row>
     <row r="689" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A689" s="3" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B689" s="1" t="s">
         <v>544</v>
@@ -17062,7 +17059,7 @@
     </row>
     <row r="690" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A690" s="3" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B690" s="1" t="s">
         <v>544</v>
@@ -17076,7 +17073,7 @@
     </row>
     <row r="691" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A691" s="3" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B691" s="1" t="s">
         <v>544</v>
@@ -17093,7 +17090,7 @@
     </row>
     <row r="692" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A692" s="3" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B692" s="1" t="s">
         <v>544</v>
@@ -17110,7 +17107,7 @@
     </row>
     <row r="693" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A693" s="3" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B693" s="1" t="s">
         <v>544</v>
@@ -17125,7 +17122,7 @@
     </row>
     <row r="694" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A694" s="3" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B694" s="1" t="s">
         <v>544</v>
@@ -17140,7 +17137,7 @@
     </row>
     <row r="695" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A695" s="3" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B695" s="1" t="s">
         <v>544</v>
@@ -17157,7 +17154,7 @@
     </row>
     <row r="696" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A696" s="3" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B696" s="1" t="s">
         <v>544</v>
@@ -17169,12 +17166,12 @@
         <v>559</v>
       </c>
       <c r="E696" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="697" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A697" s="3" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B697" s="1" t="s">
         <v>542</v>
@@ -17191,7 +17188,7 @@
     </row>
     <row r="698" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A698" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B698" s="1" t="s">
         <v>544</v>
@@ -17208,7 +17205,7 @@
     </row>
     <row r="699" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A699" s="3" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B699" s="1" t="s">
         <v>544</v>
@@ -17225,7 +17222,7 @@
     </row>
     <row r="700" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A700" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B700" s="1" t="s">
         <v>544</v>
@@ -17239,7 +17236,7 @@
     </row>
     <row r="701" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A701" s="3" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B701" s="1" t="s">
         <v>544</v>
@@ -17251,12 +17248,12 @@
         <v>556</v>
       </c>
       <c r="E701" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="702" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A702" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B702" s="1" t="s">
         <v>544</v>
@@ -17270,7 +17267,7 @@
     </row>
     <row r="703" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A703" s="3" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B703" s="1" t="s">
         <v>542</v>
@@ -17287,7 +17284,7 @@
     </row>
     <row r="704" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A704" s="3" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B704" s="1" t="s">
         <v>542</v>
@@ -17304,7 +17301,7 @@
     </row>
     <row r="705" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A705" s="3" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B705" s="1" t="s">
         <v>544</v>
@@ -17318,7 +17315,7 @@
     </row>
     <row r="706" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A706" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B706" s="1" t="s">
         <v>544</v>
@@ -17333,7 +17330,7 @@
     </row>
     <row r="707" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A707" s="3" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B707" s="1" t="s">
         <v>544</v>
@@ -17350,7 +17347,7 @@
     </row>
     <row r="708" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A708" s="3" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B708" s="1" t="s">
         <v>544</v>
@@ -17367,7 +17364,7 @@
     </row>
     <row r="709" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A709" s="3" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B709" s="1" t="s">
         <v>544</v>
@@ -17384,7 +17381,7 @@
     </row>
     <row r="710" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A710" s="3" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B710" s="1" t="s">
         <v>544</v>
@@ -17398,7 +17395,7 @@
     </row>
     <row r="711" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A711" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B711" s="1" t="s">
         <v>544</v>
@@ -17415,7 +17412,7 @@
     </row>
     <row r="712" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A712" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B712" s="1" t="s">
         <v>544</v>
@@ -17432,7 +17429,7 @@
     </row>
     <row r="713" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A713" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B713" s="1" t="s">
         <v>542</v>
@@ -17446,7 +17443,7 @@
     </row>
     <row r="714" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A714" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B714" s="1" t="s">
         <v>544</v>
@@ -17463,7 +17460,7 @@
     </row>
     <row r="715" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A715" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B715" s="1" t="s">
         <v>542</v>
@@ -17478,7 +17475,7 @@
     </row>
     <row r="716" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A716" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B716" s="1" t="s">
         <v>542</v>
@@ -17492,7 +17489,7 @@
     </row>
     <row r="717" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A717" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B717" s="1" t="s">
         <v>542</v>
@@ -17509,7 +17506,7 @@
     </row>
     <row r="718" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A718" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B718" s="1" t="s">
         <v>542</v>
@@ -17523,7 +17520,7 @@
     </row>
     <row r="719" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A719" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B719" s="1" t="s">
         <v>542</v>
@@ -17537,7 +17534,7 @@
     </row>
     <row r="720" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A720" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B720" s="1" t="s">
         <v>544</v>
@@ -17549,12 +17546,12 @@
         <v>566</v>
       </c>
       <c r="E720" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="721" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A721" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B721" s="1" t="s">
         <v>544</v>
@@ -17571,7 +17568,7 @@
     </row>
     <row r="722" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A722" s="3" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B722" s="1" t="s">
         <v>544</v>
@@ -17588,7 +17585,7 @@
     </row>
     <row r="723" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A723" s="3" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B723" s="1" t="s">
         <v>544</v>
@@ -17602,7 +17599,7 @@
     </row>
     <row r="724" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A724" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B724" s="1" t="s">
         <v>544</v>
@@ -17619,7 +17616,7 @@
     </row>
     <row r="725" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A725" s="3" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B725" s="1" t="s">
         <v>544</v>
@@ -17633,7 +17630,7 @@
     </row>
     <row r="726" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A726" s="3" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B726" s="1" t="s">
         <v>544</v>
@@ -17650,7 +17647,7 @@
     </row>
     <row r="727" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A727" s="3" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B727" s="1" t="s">
         <v>544</v>
@@ -17667,7 +17664,7 @@
     </row>
     <row r="728" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A728" s="3" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B728" s="1" t="s">
         <v>544</v>
@@ -17684,7 +17681,7 @@
     </row>
     <row r="729" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A729" s="3" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B729" s="1" t="s">
         <v>544</v>
@@ -17698,7 +17695,7 @@
     </row>
     <row r="730" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A730" s="3" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B730" s="1" t="s">
         <v>544</v>
@@ -17715,7 +17712,7 @@
     </row>
     <row r="731" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A731" s="3" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B731" s="1" t="s">
         <v>544</v>
@@ -17729,7 +17726,7 @@
     </row>
     <row r="732" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A732" s="3" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B732" s="1" t="s">
         <v>544</v>
@@ -17743,7 +17740,7 @@
     </row>
     <row r="733" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A733" s="3" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B733" s="1" t="s">
         <v>542</v>
@@ -17757,7 +17754,7 @@
     </row>
     <row r="734" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A734" s="3" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B734" s="1" t="s">
         <v>542</v>
@@ -17774,7 +17771,7 @@
     </row>
     <row r="735" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A735" s="3" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B735" s="1" t="s">
         <v>542</v>
@@ -17791,7 +17788,7 @@
     </row>
     <row r="736" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A736" s="3" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B736" s="1" t="s">
         <v>544</v>
@@ -17805,7 +17802,7 @@
     </row>
     <row r="737" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A737" s="3" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B737" s="1" t="s">
         <v>544</v>
@@ -17817,12 +17814,12 @@
         <v>553</v>
       </c>
       <c r="E737" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="738" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A738" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B738" s="1" t="s">
         <v>542</v>
@@ -17834,12 +17831,12 @@
         <v>563</v>
       </c>
       <c r="E738" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="739" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A739" s="3" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B739" s="1" t="s">
         <v>544</v>
@@ -17856,7 +17853,7 @@
     </row>
     <row r="740" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A740" s="3" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B740" s="1" t="s">
         <v>544</v>
@@ -17873,7 +17870,7 @@
     </row>
     <row r="741" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A741" s="3" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B741" s="1" t="s">
         <v>542</v>
@@ -17885,12 +17882,12 @@
         <v>563</v>
       </c>
       <c r="E741" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="742" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A742" s="3" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>544</v>
@@ -17907,7 +17904,7 @@
     </row>
     <row r="743" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A743" s="3" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B743" s="1" t="s">
         <v>544</v>
@@ -17919,12 +17916,12 @@
         <v>555</v>
       </c>
       <c r="E743" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="744" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A744" s="3" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B744" s="1" t="s">
         <v>544</v>
@@ -17936,12 +17933,12 @@
         <v>548</v>
       </c>
       <c r="E744" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="745" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A745" s="3" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B745" s="1" t="s">
         <v>544</v>
@@ -17955,7 +17952,7 @@
     </row>
     <row r="746" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A746" s="3" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B746" s="1" t="s">
         <v>542</v>
@@ -17972,7 +17969,7 @@
     </row>
     <row r="747" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A747" s="3" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B747" s="1" t="s">
         <v>542</v>
@@ -17984,12 +17981,12 @@
         <v>556</v>
       </c>
       <c r="E747" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="748" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A748" s="3" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B748" s="1" t="s">
         <v>544</v>
@@ -18001,12 +17998,12 @@
         <v>556</v>
       </c>
       <c r="E748" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="749" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A749" s="3" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B749" s="1" t="s">
         <v>544</v>
@@ -18023,7 +18020,7 @@
     </row>
     <row r="750" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A750" s="3" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B750" s="1" t="s">
         <v>544</v>
@@ -18035,12 +18032,12 @@
         <v>556</v>
       </c>
       <c r="E750" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="751" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A751" s="3" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B751" s="1" t="s">
         <v>544</v>
@@ -18057,7 +18054,7 @@
     </row>
     <row r="752" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A752" s="3" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B752" s="1" t="s">
         <v>544</v>
@@ -18074,7 +18071,7 @@
     </row>
     <row r="753" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A753" s="3" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B753" s="1" t="s">
         <v>542</v>
@@ -18086,12 +18083,12 @@
         <v>556</v>
       </c>
       <c r="E753" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="754" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A754" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B754" s="1" t="s">
         <v>542</v>
@@ -18103,12 +18100,12 @@
         <v>563</v>
       </c>
       <c r="E754" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="755" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A755" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B755" s="1" t="s">
         <v>544</v>
@@ -18122,7 +18119,7 @@
     </row>
     <row r="756" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A756" s="3" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B756" s="1" t="s">
         <v>544</v>
@@ -18134,12 +18131,12 @@
         <v>553</v>
       </c>
       <c r="E756" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="757" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A757" s="3" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B757" s="1" t="s">
         <v>542</v>
@@ -18156,7 +18153,7 @@
     </row>
     <row r="758" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A758" s="3" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B758" s="1" t="s">
         <v>542</v>
@@ -18173,7 +18170,7 @@
     </row>
     <row r="759" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A759" s="3" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B759" s="1" t="s">
         <v>544</v>
@@ -18190,7 +18187,7 @@
     </row>
     <row r="760" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A760" s="3" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B760" s="1" t="s">
         <v>544</v>
@@ -18207,7 +18204,7 @@
     </row>
     <row r="761" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A761" s="3" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B761" s="1" t="s">
         <v>542</v>
@@ -18224,7 +18221,7 @@
     </row>
     <row r="762" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A762" s="3" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B762" s="1" t="s">
         <v>542</v>
@@ -18241,7 +18238,7 @@
     </row>
     <row r="763" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A763" s="3" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B763" s="1" t="s">
         <v>544</v>
@@ -18258,7 +18255,7 @@
     </row>
     <row r="764" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A764" s="3" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B764" s="1" t="s">
         <v>542</v>
@@ -18275,7 +18272,7 @@
     </row>
     <row r="765" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A765" s="3" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B765" s="1" t="s">
         <v>542</v>
@@ -18292,7 +18289,7 @@
     </row>
     <row r="766" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A766" s="3" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B766" s="1" t="s">
         <v>544</v>
@@ -18309,7 +18306,7 @@
     </row>
     <row r="767" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A767" s="3" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B767" s="1" t="s">
         <v>542</v>
@@ -18323,7 +18320,7 @@
     </row>
     <row r="768" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A768" s="3" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B768" s="1" t="s">
         <v>542</v>
@@ -18340,7 +18337,7 @@
     </row>
     <row r="769" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A769" s="3" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B769" s="1" t="s">
         <v>542</v>
@@ -18352,12 +18349,12 @@
         <v>554</v>
       </c>
       <c r="E769" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="770" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A770" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B770" s="1" t="s">
         <v>542</v>
@@ -18369,12 +18366,12 @@
         <v>548</v>
       </c>
       <c r="E770" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="771" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A771" s="3" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>542</v>
@@ -18386,12 +18383,12 @@
         <v>558</v>
       </c>
       <c r="E771" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="772" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A772" s="3" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B772" s="1" t="s">
         <v>544</v>
@@ -18405,7 +18402,7 @@
     </row>
     <row r="773" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A773" s="3" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B773" s="1" t="s">
         <v>544</v>
@@ -18419,7 +18416,7 @@
     </row>
     <row r="774" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A774" s="3" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B774" s="1" t="s">
         <v>544</v>
@@ -18436,7 +18433,7 @@
     </row>
     <row r="775" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A775" s="3" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B775" s="1" t="s">
         <v>544</v>
@@ -18450,7 +18447,7 @@
     </row>
     <row r="776" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A776" s="3" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B776" s="1" t="s">
         <v>542</v>
@@ -18462,12 +18459,12 @@
         <v>563</v>
       </c>
       <c r="E776" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="777" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A777" s="3" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B777" s="1" t="s">
         <v>542</v>
@@ -18484,7 +18481,7 @@
     </row>
     <row r="778" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A778" s="3" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B778" s="1" t="s">
         <v>544</v>
@@ -18501,7 +18498,7 @@
     </row>
     <row r="779" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A779" s="3" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B779" s="1" t="s">
         <v>544</v>
@@ -18518,7 +18515,7 @@
     </row>
     <row r="780" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A780" s="3" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B780" s="1" t="s">
         <v>544</v>
@@ -18532,7 +18529,7 @@
     </row>
     <row r="781" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A781" s="3" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B781" s="1" t="s">
         <v>542</v>
@@ -18544,12 +18541,12 @@
         <v>558</v>
       </c>
       <c r="E781" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="782" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A782" s="3" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B782" s="1" t="s">
         <v>544</v>
@@ -18561,12 +18558,12 @@
         <v>549</v>
       </c>
       <c r="E782" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="783" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A783" s="3" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B783" s="1" t="s">
         <v>544</v>
@@ -18580,7 +18577,7 @@
     </row>
     <row r="784" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A784" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B784" s="1" t="s">
         <v>542</v>
@@ -18597,7 +18594,7 @@
     </row>
     <row r="785" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A785" s="3" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B785" s="1" t="s">
         <v>544</v>
@@ -18612,7 +18609,7 @@
     </row>
     <row r="786" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A786" s="3" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B786" s="1" t="s">
         <v>544</v>
@@ -18629,7 +18626,7 @@
     </row>
     <row r="787" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A787" s="3" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B787" s="1" t="s">
         <v>544</v>
@@ -18643,7 +18640,7 @@
     </row>
     <row r="788" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A788" s="3" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B788" s="1" t="s">
         <v>542</v>
@@ -18658,7 +18655,7 @@
     </row>
     <row r="789" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A789" s="3" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B789" s="1" t="s">
         <v>544</v>
@@ -18675,7 +18672,7 @@
     </row>
     <row r="790" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A790" s="3" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B790" s="1" t="s">
         <v>544</v>
@@ -18687,12 +18684,12 @@
         <v>553</v>
       </c>
       <c r="E790" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="791" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A791" s="3" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B791" s="1" t="s">
         <v>544</v>
@@ -18704,12 +18701,12 @@
         <v>563</v>
       </c>
       <c r="E791" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="792" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A792" s="3" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B792" s="1" t="s">
         <v>544</v>
@@ -18721,12 +18718,12 @@
         <v>551</v>
       </c>
       <c r="E792" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="793" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A793" s="3" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B793" s="1" t="s">
         <v>544</v>
@@ -18740,7 +18737,7 @@
     </row>
     <row r="794" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A794" s="3" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B794" s="1" t="s">
         <v>542</v>
@@ -18757,7 +18754,7 @@
     </row>
     <row r="795" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A795" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B795" s="1" t="s">
         <v>544</v>
@@ -18769,12 +18766,12 @@
         <v>563</v>
       </c>
       <c r="E795" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="796" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A796" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B796" s="1" t="s">
         <v>542</v>
@@ -18791,7 +18788,7 @@
     </row>
     <row r="797" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A797" s="3" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B797" s="1" t="s">
         <v>542</v>
@@ -18808,7 +18805,7 @@
     </row>
     <row r="798" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A798" s="3" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B798" s="1" t="s">
         <v>542</v>
@@ -18825,7 +18822,7 @@
     </row>
     <row r="799" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A799" s="3" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B799" s="1" t="s">
         <v>542</v>
@@ -18842,7 +18839,7 @@
     </row>
     <row r="800" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A800" s="3" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B800" s="1" t="s">
         <v>544</v>
@@ -18859,7 +18856,7 @@
     </row>
     <row r="801" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A801" s="3" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B801" s="1" t="s">
         <v>542</v>
@@ -18871,12 +18868,12 @@
         <v>563</v>
       </c>
       <c r="E801" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="802" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A802" s="3" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B802" s="1" t="s">
         <v>544</v>
@@ -18888,12 +18885,12 @@
         <v>556</v>
       </c>
       <c r="E802" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="803" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A803" s="3" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B803" s="1" t="s">
         <v>544</v>
@@ -18908,7 +18905,7 @@
     </row>
     <row r="804" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A804" s="3" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B804" s="1" t="s">
         <v>544</v>
@@ -18925,7 +18922,7 @@
     </row>
     <row r="805" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A805" s="3" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B805" s="1" t="s">
         <v>542</v>
@@ -18942,7 +18939,7 @@
     </row>
     <row r="806" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A806" s="3" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B806" s="1" t="s">
         <v>544</v>
@@ -18956,7 +18953,7 @@
     </row>
     <row r="807" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A807" s="3" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B807" s="1" t="s">
         <v>542</v>
@@ -18968,12 +18965,12 @@
         <v>563</v>
       </c>
       <c r="E807" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="808" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A808" s="3" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B808" s="1" t="s">
         <v>544</v>
@@ -18990,7 +18987,7 @@
     </row>
     <row r="809" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A809" s="3" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B809" s="1" t="s">
         <v>542</v>
@@ -19002,12 +18999,12 @@
         <v>556</v>
       </c>
       <c r="E809" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="810" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A810" s="3" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B810" s="1" t="s">
         <v>544</v>
@@ -19021,7 +19018,7 @@
     </row>
     <row r="811" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A811" s="3" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B811" s="1" t="s">
         <v>542</v>
@@ -19038,7 +19035,7 @@
     </row>
     <row r="812" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A812" s="3" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B812" s="1" t="s">
         <v>544</v>
@@ -19053,7 +19050,7 @@
     </row>
     <row r="813" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A813" s="3" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B813" s="1" t="s">
         <v>544</v>
@@ -19067,7 +19064,7 @@
     </row>
     <row r="814" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A814" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B814" s="1" t="s">
         <v>542</v>
@@ -19079,7 +19076,7 @@
         <v>563</v>
       </c>
       <c r="E814" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -22016,247 +22013,247 @@
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A583" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.2">
@@ -22266,1147 +22263,1147 @@
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A586" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A591" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A593" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A597" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A598" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A599" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A600" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A601" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A602" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A603" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A604" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A605" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A606" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A607" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A608" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A609" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A610" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A611" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A612" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A613" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A614" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A615" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A616" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A617" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A618" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A619" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A620" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A621" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A622" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A623" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A624" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A625" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A626" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A627" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A628" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A629" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A630" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A631" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A632" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A633" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A634" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A635" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A636" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A637" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A638" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A639" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A640" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A641" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A642" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A643" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A644" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A645" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A646" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A647" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A648" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A649" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A650" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A651" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A652" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A653" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A654" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A655" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A656" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A657" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A658" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A659" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A660" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A661" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A662" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A663" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A664" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A665" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A666" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A667" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A668" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A669" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A670" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A671" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A672" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A673" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A674" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A675" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A676" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A677" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A678" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A679" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A680" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A681" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A682" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A683" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A684" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A685" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A686" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A687" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A688" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A689" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A690" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A691" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A692" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A693" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A694" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A695" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A696" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A697" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A698" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A699" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A700" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A701" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A702" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A703" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A704" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A705" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A706" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A707" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A708" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A709" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A710" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A711" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A712" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A713" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A714" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A715" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A716" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A717" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A718" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A719" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A720" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A721" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A722" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A723" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A724" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A725" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A726" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A727" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A728" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A729" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A730" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A731" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A732" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A733" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A734" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A735" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A736" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A737" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A738" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A739" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A740" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A741" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A742" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A743" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A744" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A745" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A746" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A747" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A748" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A749" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A750" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A751" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A752" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A753" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A754" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A755" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A756" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A757" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A758" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A759" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A760" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A761" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A762" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A763" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A764" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A765" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A766" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A767" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A768" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A769" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A770" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A771" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A772" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A773" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A774" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A775" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A776" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A777" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A778" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A779" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A780" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A781" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A782" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A783" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A784" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A785" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A786" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A787" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A788" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A789" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A790" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A791" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A792" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A793" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A794" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A795" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A796" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A797" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A798" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A799" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A800" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A801" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A802" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A803" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A804" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A805" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A806" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A807" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A808" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A809" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A810" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A811" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A812" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A813" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A814" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>
